--- a/leon3.xlsx
+++ b/leon3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t xml:space="preserve">Ergebnisse:</t>
   </si>
@@ -34,6 +34,9 @@
     <t xml:space="preserve">Takfrequenz</t>
   </si>
   <si>
+    <t xml:space="preserve">BogoMIPS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cache</t>
   </si>
   <si>
@@ -125,21 +128,113 @@
   </si>
   <si>
     <t xml:space="preserve">INTEGER &amp; READING        64 Kb block: 49.41 MB/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU 1: 68,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU 2: 69,63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100000: ms for one run: 13 – DPS 76923,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ticks      : 17100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500000: ms for one run: 13,1 – DPS 76103,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time (secs): 17.100000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000000:  ms for one run: 13,1 – DPS 76277,6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations/Sec   : 116.959064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5000000: ms for one run:13,1 – DPS 76196,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10000000 ms for one run: 13,1 – DPS 76213,7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Core (Primäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual-Core (Primäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Core (Sekundäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual-Core (Sekundäre Y-Achse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total ticks      :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total time (secs): </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramspeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterations/Sec   :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MB/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64 Kb Block:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dual-Core</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ms für einen Lauf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMIPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -155,6 +250,21 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,7 +309,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +322,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -221,7 +335,1756 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>CoreMark</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$25:$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single-Core (Primäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$27:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16480000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$25:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual-Core (Primäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>17100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$25:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single-Core (Sekundäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dual-Core (Sekundäre Y-Achse)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$27:$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Total ticks      :</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total time (secs): </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Iterations/Sec   :</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$27:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="36181976"/>
+        <c:axId val="69315690"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="36181976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69315690"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69315690"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="36181976"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Dhrystone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms für einen Lauf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$40:$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$40:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>44.4649971542402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.2575412635174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.2919749573136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.3264655663062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.3334092202618</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="48548116"/>
+        <c:axId val="22627517"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="48548116"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl der Läufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="22627517"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="22627517"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48548116"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Dhrystone</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ms für einen Lauf</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$40:$F$44</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$40:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DMIPS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$40:$F$44</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$40:$H$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43.7809334092203</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.3144564598748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.4135458167331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.3672737620945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.3771770062607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="3713669"/>
+        <c:axId val="67086374"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="3713669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl der Läufe</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67086374"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67086374"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="3713669"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Ramspeed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MB/s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$I$30:$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32 Kb Block:</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64 Kb Block:</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$30:$J$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>233.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>235.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>232.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="77745184"/>
+        <c:axId val="18499729"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77745184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Größe des Blockes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="18499729"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="18499729"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="300"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:uFill>
+                      <a:solidFill>
+                        <a:srgbClr val="ffffff"/>
+                      </a:solidFill>
+                    </a:uFill>
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Geschwindigkeit(MB/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="77745184"/>
+        <c:crossesAt val="1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>308880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>77040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>298800</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="30679560" y="3490560"/>
+        <a:ext cx="7305120" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50040</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1262880</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>107640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="862560" y="8084520"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1364760</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>112320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>959400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>100800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9314280" y="7752600"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1600560</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2662200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4852080" y="4587480"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -229,21 +2092,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I43" activeCellId="0" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="45.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -285,6 +2152,9 @@
       <c r="K3" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="L3" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="n">
@@ -293,8 +2163,8 @@
       <c r="C4" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
+      <c r="D4" s="0" t="n">
+        <v>64.9</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>13</v>
@@ -305,79 +2175,464 @@
       <c r="G4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="K4" s="0" t="s">
+      <c r="H4" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="I4" s="1"/>
+      <c r="L4" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="K5" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="0" t="s">
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I10" s="1"/>
+      <c r="K10" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I11" s="2"/>
+      <c r="K11" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="L16" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G9" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H10" s="1"/>
-      <c r="J10" s="0" t="s">
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="2"/>
-      <c r="J11" s="0" t="s">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="1"/>
+      <c r="K22" s="0" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="2"/>
+      <c r="K23" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>16480000</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>17100000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>121.36</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>116.96</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I30" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>233.2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>235.75</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>237.98</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>232.03</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>56.35</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>49.39</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I36" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>49.41</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D40" s="3" t="n">
+        <f aca="false">78125/1757</f>
+        <v>44.4649971542402</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H40" s="3" t="n">
+        <f aca="false">76923.1/1757</f>
+        <v>43.7809334092203</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <f aca="false">77760.5/1757</f>
+        <v>44.2575412635174</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H41" s="3" t="n">
+        <f aca="false">76103.5/1757</f>
+        <v>43.3144564598748</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D42" s="3" t="n">
+        <f aca="false">77821/1757</f>
+        <v>44.2919749573136</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <f aca="false">76277.6/1757</f>
+        <v>43.4135458167331</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D43" s="3" t="n">
+        <f aca="false">77881.6/1757</f>
+        <v>44.3264655663062</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H43" s="3" t="n">
+        <f aca="false">76196.3/1757</f>
+        <v>43.3672737620945</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D44" s="3" t="n">
+        <f aca="false">77893.8/1757</f>
+        <v>44.3334092202618</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="H44" s="3" t="n">
+        <f aca="false">76213.7/1757</f>
+        <v>43.3771770062607</v>
       </c>
     </row>
   </sheetData>
@@ -388,5 +2643,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>